--- a/biology/Mycologie/Amarrendia/Amarrendia.xlsx
+++ b/biology/Mycologie/Amarrendia/Amarrendia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Amarrendia est un genre de champignons de la famille des Amanitaceae. 
 Les espèces du genre Amarrendia sont hypogées. À l'heure actuelle, ce genre n'est connu qu'en Australie. Les travaux moléculaires ont exclu plusieurs espèces hypogées attribuées à l'origine au genre Amarrendia et morphologiquement semblables. Elles n'appartiennent plus aux Amanitaceae.
-Selon MycoBank                                            (27 octobre 2013)[1], Amarrendia est un synonyme hétérotypique d’Amanita.
+Selon MycoBank                                            (27 octobre 2013), Amarrendia est un synonyme hétérotypique d’Amanita.
 </t>
         </is>
       </c>
@@ -513,15 +525,17 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon Catalogue of Life                                   (27 octobre 2013)[2] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon Catalogue of Life                                   (27 octobre 2013) :
 Amarrendia grandispora
 Amarrendia lignicolor
 Amarrendia nemoribus
 Amarrendia oleosa
 Amarrendia peridiocrystalia
-Selon Index Fungorum                                      (27 octobre 2013)[3] :
+Selon Index Fungorum                                      (27 octobre 2013) :
 Amarrendia grandispora (G.W. Beaton, Pegler &amp; T.W.K. Young) Bougher &amp; T. Lebel 2002
 Amarrendia lignicolor (G.W. Beaton, Pegler &amp; T.W.K. Young) Bougher &amp; T. Lebel 2002
 Amarrendia nemoribus Bougher &amp; T. Lebel 2002
